--- a/Documentation/HostView/HostViewWireframes.xlsx
+++ b/Documentation/HostView/HostViewWireframes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\CentRes\Documentation\HostView\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A68BB5-3510-46F6-AC76-52885B09DB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF01398-E0FE-4D7C-BB11-E0A05E784CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E23D887-9FAB-4E8E-922D-058863E57D09}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{4E23D887-9FAB-4E8E-922D-058863E57D09}"/>
   </bookViews>
   <sheets>
     <sheet name="HostView.php" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
   <si>
     <t>server</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Wait Times</t>
-  </si>
-  <si>
-    <t>▼</t>
   </si>
   <si>
     <t>Upper</t>
@@ -317,33 +314,12 @@
     <t>Assigned Ticket</t>
   </si>
   <si>
-    <t>Seated</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
-  </si>
-  <si>
-    <t>Assigned</t>
-  </si>
-  <si>
     <t xml:space="preserve">        Status</t>
   </si>
   <si>
     <t>Selected Ticket: 7</t>
   </si>
   <si>
-    <t>Assign Server</t>
-  </si>
-  <si>
-    <t>Assign Ticket</t>
-  </si>
-  <si>
-    <t>Needs more room to allow for 3 servers tops</t>
-  </si>
-  <si>
-    <t>Disabled</t>
-  </si>
-  <si>
     <t>Assign ticket won't be visible if status is Seated or Disabled</t>
   </si>
   <si>
@@ -354,12 +330,6 @@
   </si>
   <si>
     <t>around their tables?</t>
-  </si>
-  <si>
-    <t>Clicking on a table here will populate ifrSelectedTable</t>
-  </si>
-  <si>
-    <t>and ifrTicket if there is a ticked assigned to it</t>
   </si>
   <si>
     <t>Only correct states should be available here</t>
@@ -637,9 +607,6 @@
     </r>
   </si>
   <si>
-    <t>HostView can enable/disable Assign Server/Ticket variables</t>
-  </si>
-  <si>
     <r>
       <t>ORDER BY timeRequested, timeReserved;</t>
     </r>
@@ -680,35 +647,158 @@
     <t>New Ticket</t>
   </si>
   <si>
-    <t>Party Name</t>
-  </si>
-  <si>
-    <t>Party Size</t>
-  </si>
-  <si>
-    <t>Time Requested</t>
-  </si>
-  <si>
-    <t>horton</t>
-  </si>
-  <si>
-    <t>Create Ticket</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>NewTicket.php</t>
-  </si>
-  <si>
     <t>Create ticket button submits back to NewTicket.php</t>
   </si>
   <si>
-    <t>Cancel button routes to WaitList.php</t>
-  </si>
-  <si>
-    <r>
-      <t>Add button links to another page…</t>
+    <r>
+      <t xml:space="preserve">PHP code should check for sumbitted data and use the SQL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CALL createTicket(nickname, partySize, timeRequested, @newTicketNumber);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Must have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include 'Resources/php/display.php';</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> immedately before the closing &lt;/form&gt; tag</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If any of the 3 inputs are changed, they must call one of: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">setVar("lowerVal", THE_LOWER_VALUE);  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">setVar("upperVal", THE_UPPER_VALUE); </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">and finally call </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>updateDisplay();</t>
+    </r>
+  </si>
+  <si>
+    <t>setVar("minsAgoVal", MINSAGO_VALUE);</t>
+  </si>
+  <si>
+    <t>See displayInterface.php</t>
+  </si>
+  <si>
+    <t>This will force a refresh and retain the</t>
+  </si>
+  <si>
+    <t>values of lower, upper, and mins ago</t>
+  </si>
+  <si>
+    <t>Restaurant diagram with clickable tables displayed here</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>HostView will have the ability to inject hidden inputs into this php.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This php should directly insert records into the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TableLog</t>
+    </r>
+  </si>
+  <si>
+    <t>$_POST['employeeId'], $_POST['ticketId'].</t>
+  </si>
+  <si>
+    <t>It should look for $_POST['tableId'], $_POST['action'], $_POST['authorizationId'].</t>
+  </si>
+  <si>
+    <t>There must also be a combination of 1 or both of:</t>
+  </si>
+  <si>
+    <t>Note: inserting into the table log may throw SQL errors</t>
+  </si>
+  <si>
+    <t>Handle them by displaying the human readable error</t>
+  </si>
+  <si>
+    <t>to the Host with an alert or popup</t>
+  </si>
+  <si>
+    <t>If only the  $_POST['tableId'] is found, just populate the html.</t>
+  </si>
+  <si>
+    <t>If  $_POST['tableId'] isn't set, display "No Table Selected"</t>
+  </si>
+  <si>
+    <t>Clicking on a table here will populate ifrSelectedTable
+and ifrTicket if there is a ticked assigned to it</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>This is a fixed list of table stauses</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>ifrRestaurantLayout</t>
+  </si>
+  <si>
+    <t>ifrWaitList : mode 2</t>
+  </si>
+  <si>
+    <r>
+      <t>Add button links to</t>
     </r>
     <r>
       <rPr>
@@ -724,7 +814,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PHP code should check for sumbitted data and use the SQL </t>
+      <t xml:space="preserve">Back button links to </t>
     </r>
     <r>
       <rPr>
@@ -735,123 +825,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CALL createTicket(nickname, partySize, timeRequested, @newTicketNumber);</t>
-    </r>
-  </si>
-  <si>
-    <t>A better name would be "Back"…. Host may want to create several new tickets and then go "Back" to WaitList.php</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Must have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>include 'Resources/php/display.php';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> immedately before the closing &lt;/form&gt; tag</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">If any of the 3 inputs are changed, they must call one of: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">setVar("lowerVal", THE_LOWER_VALUE);  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">setVar("upperVal", THE_UPPER_VALUE); </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">and finally call </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>updateDisplay();</t>
-    </r>
-  </si>
-  <si>
-    <t>setVar("minsAgoVal", MINSAGO_VALUE);</t>
-  </si>
-  <si>
-    <t>See displayInterface.php</t>
-  </si>
-  <si>
-    <t>This will force a refresh and retain the</t>
-  </si>
-  <si>
-    <t>values of lower, upper, and mins ago</t>
-  </si>
-  <si>
-    <t>Restaurant diagram with clickable tables displayed here</t>
-  </si>
-  <si>
-    <t>Javascript</t>
-  </si>
-  <si>
-    <t>HostView will have the ability to inject hidden inputs into this php.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This php should directly insert records into the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TableLog</t>
-    </r>
-  </si>
-  <si>
-    <t>$_POST['employeeId'], $_POST['ticketId'].</t>
-  </si>
-  <si>
-    <t>It should look for $_POST['tableId'], $_POST['action'], $_POST['authorizationId'].</t>
-  </si>
-  <si>
-    <t>There must also be a combination of 1 or both of:</t>
-  </si>
-  <si>
-    <t>Note: inserting into the table log may throw SQL errors</t>
-  </si>
-  <si>
-    <t>Handle them by displaying the human readable error</t>
-  </si>
-  <si>
-    <t>to the Host with an alert or popup</t>
-  </si>
-  <si>
-    <t>If only the  $_POST['tableId'] is found, just populate the html.</t>
-  </si>
-  <si>
-    <t>If  $_POST['tableId'] isn't set, display "No Table Selected"</t>
+      <t>WaitList.php</t>
+    </r>
+  </si>
+  <si>
+    <t>Host may want to create several new tickets and then go "Back" to WaitList.php</t>
+  </si>
+  <si>
+    <t>Pressing back will cancel any entered data and not be submitted. Do we need to alert the Host for this?</t>
   </si>
 </sst>
 </file>
@@ -984,7 +965,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1174,19 +1155,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1236,19 +1204,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1312,18 +1267,59 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1340,9 +1336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1355,11 +1348,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1370,19 +1360,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,40 +1381,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1436,33 +1405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1478,13 +1420,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1492,31 +1430,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1525,28 +1448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1563,9 +1465,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1573,56 +1473,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1652,9 +1646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1713,9 +1707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>120650</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1774,9 +1768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1828,23 +1822,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61F5CA7-739C-4EDD-3701-503F4FE5230D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B53F0FD-43EE-6CA4-9417-8524C87E85AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,191 +1861,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10125075" y="1597025"/>
-          <a:ext cx="615950" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F688C5C7-F1A1-AE76-FFFB-74B4ADFA380B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10125075" y="1949450"/>
-          <a:ext cx="615950" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B53F0FD-43EE-6CA4-9417-8524C87E85AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9093200" y="2276475"/>
+          <a:off x="9093200" y="2314575"/>
           <a:ext cx="1727200" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D4B97F-95A3-2265-8CA0-68E1C7F75B65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11407775" y="638175"/>
-          <a:ext cx="946150" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2097,7 +1908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2141,8 +1952,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>105311</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>149761</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2158,7 +1969,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2196,14 +2007,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2219,7 +2030,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2233,69 +2044,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="161925" y="10277475"/>
-          <a:ext cx="866775" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A071EF99-74B4-2B7B-748E-55A335C13967}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1143000" y="10277475"/>
-          <a:ext cx="863600" cy="190500"/>
+          <a:off x="158750" y="10248900"/>
+          <a:ext cx="857250" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2316,32 +2066,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBFB0C8-F47B-122D-4579-5FD4F7786AA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA44FBB5-9EB2-136B-8920-710CBB8A1534}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8162925" y="2381250"/>
-          <a:ext cx="685800" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="2162175" y="2381250"/>
+          <a:ext cx="6553200" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2365,6 +2115,403 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823C2812-A9C8-1439-E921-FFB6FCB8219D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5353050" y="2390775"/>
+          <a:ext cx="2578100" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5371C66-374B-F09E-EA76-C073C7D06400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2162175" y="2400300"/>
+          <a:ext cx="2057400" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AF10E8-39E5-74FB-4E1A-50C1AD5AEBA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10086975" y="1628775"/>
+          <a:ext cx="733425" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D1B57B-73BD-44A7-314A-D47AC56C1EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10086975" y="2057400"/>
+          <a:ext cx="733425" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14942</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>343647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F84E1FB-3BB1-2310-7F96-5B14DD7835B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7664824" y="4086412"/>
+          <a:ext cx="1232647" cy="814294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A5AFFA-0658-182A-2AC6-9CCFF55A2C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10966450" y="1098550"/>
+          <a:ext cx="939800" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC63121-207C-8083-FEBC-1B6605EAFF4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1117600" y="10248900"/>
+          <a:ext cx="863600" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2552,67 +2699,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938194DB-6411-2D7A-C9EB-788F084AC815}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="47625" y="4171950"/>
-          <a:ext cx="1933575" cy="1524000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2729,6 +2815,67 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DBC7CF-054C-9199-D080-8598EA0C7546}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25400" y="4127500"/>
+          <a:ext cx="1930400" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2803,22 +2950,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32DE402-D6BD-0BDD-EA8A-9F4B403236C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69026A75-106B-21AD-BE07-AB2082432ECC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2988,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="28575" y="28575"/>
+          <a:off x="47625" y="47625"/>
           <a:ext cx="1933575" cy="2438400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3164,10 +3311,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BB51"/>
+  <dimension ref="B1:BH59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:T29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3189,7 +3336,7 @@
     <col min="26" max="27" width="2.90625" style="1" customWidth="1"/>
     <col min="28" max="28" width="0.90625" style="1" customWidth="1"/>
     <col min="29" max="29" width="1.453125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.81640625" style="1" customWidth="1"/>
     <col min="31" max="31" width="2.7265625" style="1" customWidth="1"/>
     <col min="32" max="32" width="8.7265625" style="1"/>
     <col min="33" max="33" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
@@ -3201,43 +3348,45 @@
     <col min="52" max="52" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="0.453125" style="1" hidden="1" customWidth="1"/>
     <col min="54" max="56" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.7265625" style="1"/>
+    <col min="57" max="59" width="8.7265625" style="1"/>
+    <col min="60" max="60" width="1.7265625" style="1" customWidth="1"/>
+    <col min="61" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:32" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:32" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="J3" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="46"/>
-      <c r="V3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="25"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+      <c r="J3" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="94"/>
+      <c r="V3" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="85"/>
     </row>
     <row r="4" spans="2:32" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
@@ -3248,16 +3397,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="7"/>
+      <c r="T4" s="6"/>
       <c r="V4" s="2"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -3268,298 +3408,244 @@
     </row>
     <row r="5" spans="2:32" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="J5" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="68"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="7"/>
+      <c r="W5" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="6"/>
       <c r="AF5" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:32" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
         <v>5</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <v>3</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="68"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="7"/>
-      <c r="AF6" s="78" t="s">
-        <v>54</v>
+      <c r="W6" s="39"/>
+      <c r="X6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="6"/>
+      <c r="AF6" s="46" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:32" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
         <v>5</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
       <c r="J7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="T7" s="6"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="68"/>
-      <c r="X7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="7"/>
-      <c r="AD7" s="1" t="s">
-        <v>45</v>
+      <c r="W7" s="41"/>
+      <c r="X7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="6"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF7" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
         <v>16</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <v>3</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="6"/>
       <c r="J8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="T8" s="6"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="7"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="2:32" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
         <v>19</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <v>4</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="6"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="7"/>
+      <c r="T9" s="6"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="7"/>
-      <c r="AD9" s="1" t="s">
-        <v>47</v>
+      <c r="W9" s="43"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="6"/>
+      <c r="AD9" s="109" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="7"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="7"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="6"/>
+      <c r="J10" s="37"/>
+      <c r="T10" s="6"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="7"/>
-      <c r="AD10" s="1" t="s">
-        <v>48</v>
+      <c r="W10" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="6"/>
+      <c r="AD10" s="46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="7"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="37"/>
+      <c r="T11" s="6"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="9"/>
     </row>
     <row r="12" spans="2:32" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="7"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:32" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="56"/>
-      <c r="V13" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="25"/>
-    </row>
-    <row r="14" spans="2:32" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="36"/>
+      <c r="V13" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="85"/>
+    </row>
+    <row r="14" spans="2:32" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3567,674 +3653,554 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="56"/>
-      <c r="V14" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="62"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="36"/>
+      <c r="V14" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="88"/>
     </row>
     <row r="15" spans="2:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="16" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="J15" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="92"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="64"/>
-    </row>
-    <row r="16" spans="2:32" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="6"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="58"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="68"/>
+    </row>
+    <row r="16" spans="2:32" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19">
+      <c r="C16" s="19"/>
+      <c r="D16" s="17">
         <v>0.69097222222222221</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="22">
+      <c r="F16" s="12"/>
+      <c r="G16" s="20">
         <v>7</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="J16" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="92"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="64"/>
+      <c r="H16" s="6"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="58"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="68"/>
     </row>
     <row r="17" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19">
+      <c r="C17" s="11"/>
+      <c r="D17" s="17">
         <v>0.69097222222222221</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="22">
+      <c r="F17" s="12"/>
+      <c r="G17" s="20">
         <v>2</v>
       </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="7"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="64"/>
+      <c r="T17" s="6"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="67"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="67"/>
+      <c r="Z17" s="67"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="68"/>
     </row>
     <row r="18" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19">
+      <c r="C18" s="11"/>
+      <c r="D18" s="17">
         <v>0.69444444444444453</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="22">
+      <c r="F18" s="12"/>
+      <c r="G18" s="20">
         <v>1</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="J18" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="110"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="64"/>
+      <c r="H18" s="6"/>
+      <c r="J18" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="74"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="68"/>
     </row>
     <row r="19" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="19">
+      <c r="C19" s="11"/>
+      <c r="D19" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="22">
+      <c r="F19" s="12"/>
+      <c r="G19" s="20">
         <v>3</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="110"/>
-      <c r="V19" s="63"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="64"/>
+      <c r="H19" s="6"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="74"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="68"/>
     </row>
     <row r="20" spans="2:54" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="7"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="110"/>
-      <c r="V20" s="63"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="64"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="6"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="74"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="68"/>
     </row>
     <row r="21" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="7"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="110"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="64"/>
-      <c r="AQ21" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS21" s="32" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="6"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="74"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="68"/>
+      <c r="AQ21" s="24" t="s">
         <v>19</v>
       </c>
+      <c r="AS21" s="24" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="2:54" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="8"/>
-      <c r="C22" s="33" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="10"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="110"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="64"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="9"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="74"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="68"/>
     </row>
     <row r="23" spans="2:54" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J23" s="108"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="110"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="64"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="74"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="68"/>
     </row>
     <row r="24" spans="2:54" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="110"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="64"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="74"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="68"/>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="110"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="64"/>
+      <c r="H25" s="6"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="74"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="68"/>
     </row>
     <row r="26" spans="2:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="110"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="64"/>
-      <c r="AQ26" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36" t="s">
+      <c r="H26" s="6"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="74"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="68"/>
+      <c r="AQ26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="AT26" s="36"/>
-      <c r="AU26" s="36" t="s">
-        <v>32</v>
+      <c r="AR26" s="27"/>
+      <c r="AS26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT26" s="27"/>
+      <c r="AU26" s="27" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="110"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="64"/>
-      <c r="AX27" s="35">
+      <c r="H27" s="6"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="74"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="67"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="68"/>
+      <c r="AX27" s="26">
         <v>2</v>
       </c>
-      <c r="AY27" s="37"/>
-      <c r="AZ27" s="35">
+      <c r="AY27" s="28"/>
+      <c r="AZ27" s="26">
         <v>5</v>
       </c>
-      <c r="BA27" s="37"/>
-      <c r="BB27" s="35">
+      <c r="BA27" s="28"/>
+      <c r="BB27" s="26">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:54" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="110"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="64"/>
+      <c r="H28" s="6"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="74"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="68"/>
     </row>
     <row r="29" spans="2:54" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="43"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="113"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="43"/>
-      <c r="AX29" s="39" t="s">
+      <c r="B29" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="AY29" s="40"/>
-      <c r="AZ29" s="40"/>
-      <c r="BA29" s="40"/>
-      <c r="BB29" s="41"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="71"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="77"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="71"/>
+      <c r="AX29" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY29" s="90"/>
+      <c r="AZ29" s="90"/>
+      <c r="BA29" s="90"/>
+      <c r="BB29" s="91"/>
     </row>
     <row r="30" spans="2:54" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:54" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AD32" s="28" t="s">
+    <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="2:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="80"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="5"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="5"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="5"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="5"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="2:8" ht="8.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="5"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="68"/>
+    </row>
+    <row r="47" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="69"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="71"/>
+    </row>
+    <row r="55" spans="59:60" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="59:60" x14ac:dyDescent="0.35">
+      <c r="BG56" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="AG32" s="35">
+      <c r="BH56" s="107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="59:60" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BG57" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH57" s="108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="59:60" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BG59" s="110">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="2:35" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="2:35" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AD34" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE34" s="74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:35" hidden="1" x14ac:dyDescent="0.35">
-      <c r="AD35" s="75" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:35" hidden="1" x14ac:dyDescent="0.35">
-      <c r="AD36" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI36" s="73" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:35" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AD37" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG37" s="73" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:35" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="2:35" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="2:35" ht="23.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="94"/>
-    </row>
-    <row r="41" spans="2:35" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="2:35" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
-      <c r="M42" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="N42" s="95"/>
-      <c r="O42" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="P42" s="97"/>
-    </row>
-    <row r="43" spans="2:35" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="7"/>
-      <c r="M43" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="N43" s="95"/>
-      <c r="O43" s="96">
-        <v>7</v>
-      </c>
-      <c r="P43" s="97"/>
-    </row>
-    <row r="44" spans="2:35" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7"/>
-      <c r="M44" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="N44" s="95"/>
-      <c r="O44" s="98">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="P44" s="97"/>
-    </row>
-    <row r="45" spans="2:35" ht="8.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="2:35" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="64"/>
-      <c r="AG46" s="37"/>
-    </row>
-    <row r="47" spans="2:35" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="42"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="43"/>
-      <c r="AG47" s="99" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="2:35" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="33:33" hidden="1" x14ac:dyDescent="0.35">
-      <c r="AG49" s="99" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="33:33" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="33:33" hidden="1" x14ac:dyDescent="0.35"/>
+      <c r="BH59" s="108" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D6:G9">
     <sortCondition ref="F6:F9"/>
   </sortState>
-  <mergeCells count="24">
-    <mergeCell ref="B46:H47"/>
-    <mergeCell ref="J18:T29"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="V14:AB29"/>
-    <mergeCell ref="J15:T15"/>
-    <mergeCell ref="J16:T16"/>
+  <mergeCells count="18">
     <mergeCell ref="AX29:BB29"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="J3:T3"/>
@@ -4245,6 +4211,14 @@
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B13:H13"/>
+    <mergeCell ref="L15:R16"/>
+    <mergeCell ref="J5:T6"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="V14:AB29"/>
+    <mergeCell ref="B46:H47"/>
+    <mergeCell ref="J18:T29"/>
+    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -4267,92 +4241,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="D1" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="4:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="6"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="4:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="6" t="s">
-        <v>30</v>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="4:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="6" t="s">
-        <v>27</v>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="4:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="6"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="4:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="6" t="s">
-        <v>26</v>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D7" s="6" t="s">
-        <v>64</v>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D8" s="6"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D9" s="6" t="s">
-        <v>29</v>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D10" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
+      <c r="D10" s="34" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D11" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
+      <c r="D11" s="56" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D14" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
+      <c r="D14" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D15" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="D15" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4363,10 +4329,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645F9BC3-FD70-45E7-BF31-A2F0860E127B}">
-  <dimension ref="D1:N30"/>
+  <dimension ref="D1:N31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4375,130 +4341,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D1" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="D1" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="4" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
+      <c r="D5" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D6" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
+      <c r="D6" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D7" s="82" t="s">
-        <v>61</v>
+      <c r="D7" s="50" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
+      <c r="D9" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D10" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
+      <c r="D10" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D11" s="81" t="s">
-        <v>71</v>
+      <c r="D11" s="49" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D13" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="86"/>
+      <c r="D13" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D14" s="82" t="s">
-        <v>60</v>
+      <c r="D14" s="50" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D15" s="82" t="s">
-        <v>58</v>
+      <c r="D15" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D16" s="82" t="s">
-        <v>62</v>
+      <c r="D16" s="50" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="82" t="s">
-        <v>82</v>
+      <c r="D18" s="50" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4522,211 +4486,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="D1" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D2" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
+      <c r="D2" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D4" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="104"/>
+      <c r="D4" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="62"/>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D5" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="91"/>
+      <c r="D5" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D6" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="91"/>
+      <c r="D6" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="57"/>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D7" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="91"/>
+      <c r="D7" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="57"/>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D8" s="82"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="91"/>
+      <c r="D8" s="50"/>
+      <c r="I8" s="57"/>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D9" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107"/>
+      <c r="D9" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D14" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
+      <c r="D14" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4742,7 +4690,7 @@
   <dimension ref="D1:J13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4753,60 +4701,60 @@
   <sheetData>
     <row r="1" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="D3" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D4" s="88" t="s">
-        <v>99</v>
+      <c r="D4" s="55" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D5" s="82" t="s">
-        <v>100</v>
+      <c r="D5" s="50" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="82"/>
+      <c r="D6" s="50"/>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="82" t="s">
-        <v>101</v>
+      <c r="D8" s="50" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="82" t="s">
-        <v>102</v>
+      <c r="D9" s="50" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="82" t="s">
-        <v>103</v>
+      <c r="D10" s="50" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="82" t="s">
-        <v>104</v>
+      <c r="D12" s="50" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="82" t="s">
-        <v>105</v>
+      <c r="D13" s="50" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/HostView/HostViewWireframes.xlsx
+++ b/Documentation/HostView/HostViewWireframes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\CentRes\Documentation\HostView\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF01398-E0FE-4D7C-BB11-E0A05E784CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ED4008-7B04-44FE-9CC8-C1550B11E8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{4E23D887-9FAB-4E8E-922D-058863E57D09}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>server</t>
   </si>
@@ -834,12 +834,15 @@
   <si>
     <t>Pressing back will cancel any entered data and not be submitted. Do we need to alert the Host for this?</t>
   </si>
+  <si>
+    <t>HostView.php</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,6 +929,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1484,6 +1494,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,13 +1581,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1520,103 +1617,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3314,7 +3326,7 @@
   <dimension ref="B1:BH59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3353,40 +3365,70 @@
     <col min="61" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="34" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:32" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+    </row>
     <row r="2" spans="2:32" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:32" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
-      <c r="J3" s="92" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
+      <c r="J3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="94"/>
-      <c r="V3" s="78" t="s">
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="80"/>
+      <c r="V3" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="83"/>
     </row>
     <row r="4" spans="2:32" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
@@ -3418,27 +3460,27 @@
         <v>27</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="68"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="94"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="81" t="s">
+      <c r="W5" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="83"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="97"/>
       <c r="AB5" s="6"/>
       <c r="AF5" s="1" t="s">
         <v>43</v>
@@ -3458,17 +3500,17 @@
         <v>3</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="68"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="94"/>
       <c r="V6" s="5"/>
       <c r="W6" s="39"/>
       <c r="X6" s="22" t="s">
@@ -3508,7 +3550,7 @@
       <c r="AA7" s="42"/>
       <c r="AB7" s="6"/>
       <c r="AD7" s="21"/>
-      <c r="AE7" s="111" t="s">
+      <c r="AE7" s="71" t="s">
         <v>88</v>
       </c>
       <c r="AF7" s="21" t="s">
@@ -3535,7 +3577,7 @@
       <c r="T8" s="6"/>
       <c r="V8" s="5"/>
       <c r="W8" s="41"/>
-      <c r="X8" s="109" t="s">
+      <c r="X8" t="s">
         <v>36</v>
       </c>
       <c r="AA8" s="42"/>
@@ -3563,30 +3605,30 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="6"/>
-      <c r="AD9" s="109" t="s">
+      <c r="AD9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
       <c r="H10" s="6"/>
       <c r="J10" s="37"/>
       <c r="T10" s="6"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="95" t="s">
+      <c r="W10" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
       <c r="AB10" s="6"/>
       <c r="AD10" s="46" t="s">
         <v>40</v>
@@ -3615,15 +3657,15 @@
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:32" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
       <c r="J13" s="33"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -3635,15 +3677,15 @@
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
       <c r="T13" s="36"/>
-      <c r="V13" s="78" t="s">
+      <c r="V13" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="85"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="83"/>
     </row>
     <row r="14" spans="2:32" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
@@ -3664,15 +3706,15 @@
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
       <c r="T14" s="36"/>
-      <c r="V14" s="86" t="s">
+      <c r="V14" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="88"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="99"/>
+      <c r="Z14" s="99"/>
+      <c r="AA14" s="99"/>
+      <c r="AB14" s="100"/>
     </row>
     <row r="15" spans="2:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
@@ -3690,24 +3732,24 @@
       <c r="H15" s="6"/>
       <c r="J15" s="38"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="101"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="88"/>
       <c r="S15" s="28"/>
       <c r="T15" s="58"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="68"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="94"/>
     </row>
     <row r="16" spans="2:32" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
@@ -3725,22 +3767,22 @@
       <c r="H16" s="6"/>
       <c r="J16" s="38"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="104"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="91"/>
       <c r="S16" s="28"/>
       <c r="T16" s="58"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="68"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="94"/>
     </row>
     <row r="17" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
@@ -3758,13 +3800,13 @@
       <c r="H17" s="6"/>
       <c r="J17" s="5"/>
       <c r="T17" s="6"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="67"/>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="68"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="94"/>
     </row>
     <row r="18" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
@@ -3780,26 +3822,26 @@
         <v>1</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="74"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="68"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="103"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="94"/>
     </row>
     <row r="19" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
@@ -3815,24 +3857,24 @@
         <v>3</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="74"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="68"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="103"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="94"/>
     </row>
     <row r="20" spans="2:54" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
@@ -3842,24 +3884,24 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="6"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="74"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="68"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="103"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="94"/>
     </row>
     <row r="21" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
@@ -3869,24 +3911,24 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="6"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="74"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="67"/>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="68"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="103"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="94"/>
       <c r="AQ21" s="24" t="s">
         <v>19</v>
       </c>
@@ -3896,125 +3938,125 @@
     </row>
     <row r="22" spans="2:54" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="7"/>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="9"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="74"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="67"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="68"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="103"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="94"/>
     </row>
     <row r="23" spans="2:54" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J23" s="72"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="74"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="67"/>
-      <c r="Z23" s="67"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="68"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="103"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="94"/>
     </row>
     <row r="24" spans="2:54" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="74"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="67"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="68"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="103"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="94"/>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="H25" s="6"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="74"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="67"/>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="68"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="103"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="94"/>
     </row>
     <row r="26" spans="2:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="H26" s="6"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="74"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="67"/>
-      <c r="Z26" s="67"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="68"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="103"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="94"/>
       <c r="AQ26" s="27" t="s">
         <v>17</v>
       </c>
@@ -4030,24 +4072,24 @@
     <row r="27" spans="2:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="H27" s="6"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="74"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="68"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="103"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="94"/>
       <c r="AX27" s="26">
         <v>2</v>
       </c>
@@ -4063,73 +4105,73 @@
     <row r="28" spans="2:54" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="H28" s="6"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="74"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="68"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="103"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="94"/>
     </row>
     <row r="29" spans="2:54" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="71"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="77"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="71"/>
-      <c r="AX29" s="89" t="s">
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="106"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="77"/>
+      <c r="AX29" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="AY29" s="90"/>
-      <c r="AZ29" s="90"/>
-      <c r="BA29" s="90"/>
-      <c r="BB29" s="91"/>
+      <c r="AY29" s="73"/>
+      <c r="AZ29" s="73"/>
+      <c r="BA29" s="73"/>
+      <c r="BB29" s="74"/>
     </row>
     <row r="30" spans="2:54" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="2:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="80"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="108"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
@@ -4152,47 +4194,47 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="68"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="94"/>
     </row>
     <row r="47" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="69"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="71"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="77"/>
     </row>
     <row r="55" spans="59:60" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="59:60" x14ac:dyDescent="0.35">
-      <c r="BG56" s="105" t="s">
+      <c r="BG56" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="BH56" s="107" t="s">
+      <c r="BH56" s="68" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="57" spans="59:60" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="BG57" s="106" t="s">
+      <c r="BG57" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="BH57" s="108" t="s">
+      <c r="BH57" s="69" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="59" spans="59:60" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="BG59" s="110">
+      <c r="BG59" s="70">
         <v>7</v>
       </c>
-      <c r="BH59" s="108" t="s">
+      <c r="BH59" s="69" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4200,7 +4242,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D6:G9">
     <sortCondition ref="F6:F9"/>
   </sortState>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="B46:H47"/>
+    <mergeCell ref="J18:T29"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B1:AB1"/>
     <mergeCell ref="AX29:BB29"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="J3:T3"/>
@@ -4216,9 +4262,6 @@
     <mergeCell ref="W5:AA5"/>
     <mergeCell ref="V13:AB13"/>
     <mergeCell ref="V14:AB29"/>
-    <mergeCell ref="B46:H47"/>
-    <mergeCell ref="J18:T29"/>
-    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -4571,110 +4614,110 @@
       <c r="I9" s="65"/>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/HostView/HostViewWireframes.xlsx
+++ b/Documentation/HostView/HostViewWireframes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\CentRes\Documentation\HostView\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ED4008-7B04-44FE-9CC8-C1550B11E8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9E9B65-DB21-438C-B94E-2AE1CB14BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{4E23D887-9FAB-4E8E-922D-058863E57D09}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E23D887-9FAB-4E8E-922D-058863E57D09}"/>
   </bookViews>
   <sheets>
     <sheet name="HostView.php" sheetId="1" r:id="rId1"/>
@@ -1512,6 +1512,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,15 +1569,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,9 +1578,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1572,15 +1608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,37 +1626,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3325,7 +3325,7 @@
   </sheetPr>
   <dimension ref="B1:BH59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
@@ -3366,69 +3366,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
     </row>
     <row r="2" spans="2:32" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:32" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
-      <c r="J3" s="78" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
+      <c r="J3" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="80"/>
-      <c r="V3" s="81" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="93"/>
+      <c r="V3" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="83"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="95"/>
     </row>
     <row r="4" spans="2:32" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
@@ -3460,27 +3460,27 @@
         <v>27</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="94"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="74"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="95" t="s">
+      <c r="W5" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="97"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="106"/>
       <c r="AB5" s="6"/>
       <c r="AF5" s="1" t="s">
         <v>43</v>
@@ -3500,17 +3500,17 @@
         <v>3</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="93"/>
-      <c r="S6" s="93"/>
-      <c r="T6" s="94"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="74"/>
       <c r="V6" s="5"/>
       <c r="W6" s="39"/>
       <c r="X6" s="22" t="s">
@@ -3611,24 +3611,24 @@
     </row>
     <row r="10" spans="2:32" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="6"/>
       <c r="J10" s="37"/>
       <c r="T10" s="6"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="84" t="s">
+      <c r="W10" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
       <c r="AB10" s="6"/>
       <c r="AD10" s="46" t="s">
         <v>40</v>
@@ -3657,15 +3657,15 @@
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:32" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="95"/>
       <c r="J13" s="33"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -3677,15 +3677,15 @@
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
       <c r="T13" s="36"/>
-      <c r="V13" s="81" t="s">
+      <c r="V13" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="83"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="95"/>
     </row>
     <row r="14" spans="2:32" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
@@ -3706,15 +3706,15 @@
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
       <c r="T14" s="36"/>
-      <c r="V14" s="98" t="s">
+      <c r="V14" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99"/>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="100"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="109"/>
     </row>
     <row r="15" spans="2:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
@@ -3732,24 +3732,24 @@
       <c r="H15" s="6"/>
       <c r="J15" s="38"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="86" t="s">
+      <c r="L15" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="88"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="100"/>
       <c r="S15" s="28"/>
       <c r="T15" s="58"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93"/>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="94"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="74"/>
     </row>
     <row r="16" spans="2:32" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
@@ -3767,22 +3767,22 @@
       <c r="H16" s="6"/>
       <c r="J16" s="38"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="91"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="103"/>
       <c r="S16" s="28"/>
       <c r="T16" s="58"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="94"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="74"/>
     </row>
     <row r="17" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
@@ -3800,13 +3800,13 @@
       <c r="H17" s="6"/>
       <c r="J17" s="5"/>
       <c r="T17" s="6"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="94"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="74"/>
     </row>
     <row r="18" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
@@ -3822,26 +3822,26 @@
         <v>1</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="J18" s="101" t="s">
+      <c r="J18" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="103"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="94"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="80"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="74"/>
     </row>
     <row r="19" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
@@ -3857,24 +3857,24 @@
         <v>3</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="103"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="94"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="80"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="74"/>
     </row>
     <row r="20" spans="2:54" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
@@ -3884,24 +3884,24 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="6"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="103"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="94"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="80"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="74"/>
     </row>
     <row r="21" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
@@ -3911,24 +3911,24 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="6"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="103"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="94"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="80"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="74"/>
       <c r="AQ21" s="24" t="s">
         <v>19</v>
       </c>
@@ -3946,117 +3946,117 @@
       <c r="F22" s="76"/>
       <c r="G22" s="76"/>
       <c r="H22" s="9"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="103"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="94"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="80"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="74"/>
     </row>
     <row r="23" spans="2:54" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J23" s="101"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="103"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="94"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="80"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="74"/>
     </row>
     <row r="24" spans="2:54" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="83"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="103"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="80"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="74"/>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="H25" s="6"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="103"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="94"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="80"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="74"/>
     </row>
     <row r="26" spans="2:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="H26" s="6"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="103"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="93"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="93"/>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="94"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="80"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="74"/>
       <c r="AQ26" s="27" t="s">
         <v>17</v>
       </c>
@@ -4072,24 +4072,24 @@
     <row r="27" spans="2:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="H27" s="6"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="103"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="94"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="80"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="74"/>
       <c r="AX27" s="26">
         <v>2</v>
       </c>
@@ -4105,24 +4105,24 @@
     <row r="28" spans="2:54" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="H28" s="6"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="103"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="94"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="80"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="74"/>
     </row>
     <row r="29" spans="2:54" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="75" t="s">
@@ -4134,17 +4134,17 @@
       <c r="F29" s="76"/>
       <c r="G29" s="76"/>
       <c r="H29" s="77"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="105"/>
-      <c r="T29" s="106"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="83"/>
       <c r="V29" s="75"/>
       <c r="W29" s="76"/>
       <c r="X29" s="76"/>
@@ -4152,26 +4152,26 @@
       <c r="Z29" s="76"/>
       <c r="AA29" s="76"/>
       <c r="AB29" s="77"/>
-      <c r="AX29" s="72" t="s">
+      <c r="AX29" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="AY29" s="73"/>
-      <c r="AZ29" s="73"/>
-      <c r="BA29" s="73"/>
-      <c r="BB29" s="74"/>
+      <c r="AY29" s="89"/>
+      <c r="AZ29" s="89"/>
+      <c r="BA29" s="89"/>
+      <c r="BB29" s="90"/>
     </row>
     <row r="30" spans="2:54" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="2:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="108"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
@@ -4194,15 +4194,15 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="94"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="74"/>
     </row>
     <row r="47" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="75"/>
@@ -4243,6 +4243,9 @@
     <sortCondition ref="F6:F9"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="V14:AB29"/>
     <mergeCell ref="B46:H47"/>
     <mergeCell ref="J18:T29"/>
     <mergeCell ref="B40:H40"/>
@@ -4259,9 +4262,6 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="L15:R16"/>
     <mergeCell ref="J5:T6"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="V14:AB29"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -4374,7 +4374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645F9BC3-FD70-45E7-BF31-A2F0860E127B}">
   <dimension ref="D1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4614,110 +4614,110 @@
       <c r="I9" s="65"/>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/HostView/HostViewWireframes.xlsx
+++ b/Documentation/HostView/HostViewWireframes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\CentRes\Documentation\HostView\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9E9B65-DB21-438C-B94E-2AE1CB14BA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E87DEA4-C495-4864-AC6B-F9202BE0CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E23D887-9FAB-4E8E-922D-058863E57D09}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4E23D887-9FAB-4E8E-922D-058863E57D09}"/>
   </bookViews>
   <sheets>
     <sheet name="HostView.php" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="147">
   <si>
     <t>server</t>
   </si>
@@ -735,49 +735,6 @@
     <t>Javascript</t>
   </si>
   <si>
-    <t>HostView will have the ability to inject hidden inputs into this php.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This php should directly insert records into the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TableLog</t>
-    </r>
-  </si>
-  <si>
-    <t>$_POST['employeeId'], $_POST['ticketId'].</t>
-  </si>
-  <si>
-    <t>It should look for $_POST['tableId'], $_POST['action'], $_POST['authorizationId'].</t>
-  </si>
-  <si>
-    <t>There must also be a combination of 1 or both of:</t>
-  </si>
-  <si>
-    <t>Note: inserting into the table log may throw SQL errors</t>
-  </si>
-  <si>
-    <t>Handle them by displaying the human readable error</t>
-  </si>
-  <si>
-    <t>to the Host with an alert or popup</t>
-  </si>
-  <si>
-    <t>If only the  $_POST['tableId'] is found, just populate the html.</t>
-  </si>
-  <si>
-    <t>If  $_POST['tableId'] isn't set, display "No Table Selected"</t>
-  </si>
-  <si>
     <t>Clicking on a table here will populate ifrSelectedTable
 and ifrTicket if there is a ticked assigned to it</t>
   </si>
@@ -837,12 +794,295 @@
   <si>
     <t>HostView.php</t>
   </si>
+  <si>
+    <t>setVar("action", "remove");</t>
+  </si>
+  <si>
+    <t>setVar("employeeId", id of the employee you clicked);</t>
+  </si>
+  <si>
+    <t>updateDisplay();</t>
+  </si>
+  <si>
+    <t>Pressing the X button beside a server should:</t>
+  </si>
+  <si>
+    <t>Pressing Assign Server Button should:</t>
+  </si>
+  <si>
+    <t>NOTE: the employeeId will be injected into your form by HostView.php</t>
+  </si>
+  <si>
+    <t>setVar("verboseAction","removeEmployee");</t>
+  </si>
+  <si>
+    <t>setVar("verboseAction","addServer");</t>
+  </si>
+  <si>
+    <t>setVar("action", "add");</t>
+  </si>
+  <si>
+    <t>Pressing the X beside the ticket should:</t>
+  </si>
+  <si>
+    <t>setVar("verboseAction", "removeTicket");</t>
+  </si>
+  <si>
+    <t>Pressing Assign Ticket Button should:</t>
+  </si>
+  <si>
+    <t>setVar("verboseAction","addTicket");</t>
+  </si>
+  <si>
+    <t>NOTE: the ticketId will be injected into your form by HostView.php</t>
+  </si>
+  <si>
+    <t>Pressing the Bussing Complete Button should:</t>
+  </si>
+  <si>
+    <t>setVar("verboseAction", "setBussed");</t>
+  </si>
+  <si>
+    <t>Pressing the Enable Table Button should:</t>
+  </si>
+  <si>
+    <t>Pressing the Disable Button should:</t>
+  </si>
+  <si>
+    <t>setVar("verboseAction", "enableTable");</t>
+  </si>
+  <si>
+    <t>setVar("verboseAction", "disableTable");</t>
+  </si>
+  <si>
+    <t>NOTE: If there's only 1 server and a ticket, there should be no X beside the server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    The ticket must be removed first before removing the only server</t>
+  </si>
+  <si>
+    <t>if isset($_POST['verboseAction'])</t>
+  </si>
+  <si>
+    <t>If verboseAction = addServer</t>
+  </si>
+  <si>
+    <t>$columns="authorizationId, tableId"</t>
+  </si>
+  <si>
+    <t>$values="$_POST['authorizationId'], $_POST['tableId']</t>
+  </si>
+  <si>
+    <t>columns += ", action, employeeId"</t>
+  </si>
+  <si>
+    <t>if verboseAction = addTicket</t>
+  </si>
+  <si>
+    <t>columns += ", action, ticketId"</t>
+  </si>
+  <si>
+    <t>Note: You need to store the employee IDs for servers assigned to the table.</t>
+  </si>
+  <si>
+    <t>in your html structure somewhere</t>
+  </si>
+  <si>
+    <t>if verboseAction = removeServer</t>
+  </si>
+  <si>
+    <t>if verboseAction=removeTicket</t>
+  </si>
+  <si>
+    <t>if verboseAction = setBussed</t>
+  </si>
+  <si>
+    <t>values += ",'Add', $_POST['employeeId']"</t>
+  </si>
+  <si>
+    <t>values += ",'Add', $_POST['ticketId']"</t>
+  </si>
+  <si>
+    <t>values += ",'Remove', $_POST['employeeId']"</t>
+  </si>
+  <si>
+    <t>values += ",'Remove', $_POST['ticketId']"</t>
+  </si>
+  <si>
+    <t>values += ", 'SetBussed'"</t>
+  </si>
+  <si>
+    <t>columns += ", action"</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt; Ⓒ Layout PHP Logic: Depends on table's status</t>
+  </si>
+  <si>
+    <t>Ⓐ PHP Logic for Inserting into TableLog</t>
+  </si>
+  <si>
+    <t>Ⓑ JavaScript Logic</t>
+  </si>
+  <si>
+    <t>At the very top of the PHP File</t>
+  </si>
+  <si>
+    <t>if verboseAction = disableTable</t>
+  </si>
+  <si>
+    <t>values += ", 'disable'"</t>
+  </si>
+  <si>
+    <t>if verboseAction=enableTable</t>
+  </si>
+  <si>
+    <t>sql = "INSERT INTO TableLog ($columns) VALUES ($values);"</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>execute sql</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>You aren't supposed to be doing what you're doing.</t>
+  </si>
+  <si>
+    <t>My sql code throws a human readable error</t>
+  </si>
+  <si>
+    <t>Display this error as is</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">unset(verboseAction); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This PHP function will prevent a refresh from</t>
+    </r>
+  </si>
+  <si>
+    <t>attempting to insert into TableLog again</t>
+  </si>
+  <si>
+    <t>You'll need event listeners for the buttons and Xs. Use 'pointerdown' instead of any click method</t>
+  </si>
+  <si>
+    <t>We are desigining this to be touch friendly</t>
+  </si>
+  <si>
+    <r>
+      <t>In &lt;head&gt;&lt;script&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>….</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/script&gt;&lt;/head&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>In &lt;form&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/form&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CodeRepo/DisplayTemplate/displayTemplate.php
+Copy the contents of this file. It contains everything
+you need to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>display.php</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>displayInterface.js</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,8 +1176,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -974,8 +1247,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1325,11 +1610,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1512,6 +1899,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1548,9 +1962,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1578,12 +1989,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1608,28 +2013,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2961,23 +3378,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>545706</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69026A75-106B-21AD-BE07-AB2082432ECC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55F3803-42D0-E63F-5BF8-3FEEE94753C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,8 +3417,250 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="47625" y="47625"/>
-          <a:ext cx="1933575" cy="2438400"/>
+          <a:off x="4044950" y="79374"/>
+          <a:ext cx="1987156" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>555624</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88307</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E70D3F49-C083-E30F-B283-767BE379F278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6042024" y="88899"/>
+          <a:ext cx="1967908" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1456080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095536F6-EAD8-2A93-01BA-43CB142B88F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8013699" y="88899"/>
+          <a:ext cx="1979956" cy="2460626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>372292</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A577663-BCE9-CF5E-530A-D5AB8D26B80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="90486" y="82550"/>
+          <a:ext cx="1948681" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>544650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6C592C-D2EC-0BCA-15B5-542D807E08DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2044700" y="73025"/>
+          <a:ext cx="1995625" cy="2470150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3325,8 +3984,8 @@
   </sheetPr>
   <dimension ref="B1:BH59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5:AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3366,69 +4025,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
+      <c r="B1" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
     </row>
     <row r="2" spans="2:32" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:32" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-      <c r="J3" s="91" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="J3" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="93"/>
-      <c r="V3" s="84" t="s">
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="101"/>
+      <c r="V3" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="95"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="77"/>
     </row>
     <row r="4" spans="2:32" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
@@ -3460,27 +4119,27 @@
         <v>27</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="J5" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="74"/>
+      <c r="J5" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="83"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="104" t="s">
+      <c r="W5" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="106"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="74"/>
       <c r="AB5" s="6"/>
       <c r="AF5" s="1" t="s">
         <v>43</v>
@@ -3500,17 +4159,17 @@
         <v>3</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="83"/>
       <c r="V6" s="5"/>
       <c r="W6" s="39"/>
       <c r="X6" s="22" t="s">
@@ -3551,10 +4210,10 @@
       <c r="AB7" s="6"/>
       <c r="AD7" s="21"/>
       <c r="AE7" s="71" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AF7" s="21" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -3611,24 +4270,24 @@
     </row>
     <row r="10" spans="2:32" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
       <c r="H10" s="6"/>
       <c r="J10" s="37"/>
       <c r="T10" s="6"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="96" t="s">
+      <c r="W10" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
       <c r="AB10" s="6"/>
       <c r="AD10" s="46" t="s">
         <v>40</v>
@@ -3657,15 +4316,15 @@
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:32" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="95"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
       <c r="J13" s="33"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -3677,15 +4336,15 @@
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
       <c r="T13" s="36"/>
-      <c r="V13" s="84" t="s">
+      <c r="V13" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="95"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="77"/>
     </row>
     <row r="14" spans="2:32" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
@@ -3706,15 +4365,15 @@
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
       <c r="T14" s="36"/>
-      <c r="V14" s="107" t="s">
+      <c r="V14" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="108"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="109"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="80"/>
     </row>
     <row r="15" spans="2:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
@@ -3732,24 +4391,24 @@
       <c r="H15" s="6"/>
       <c r="J15" s="38"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="100"/>
+      <c r="L15" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="106"/>
       <c r="S15" s="28"/>
       <c r="T15" s="58"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="74"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="82"/>
+      <c r="X15" s="82"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="83"/>
     </row>
     <row r="16" spans="2:32" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
@@ -3767,22 +4426,22 @@
       <c r="H16" s="6"/>
       <c r="J16" s="38"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="103"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="109"/>
       <c r="S16" s="28"/>
       <c r="T16" s="58"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="74"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="82"/>
+      <c r="X16" s="82"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="83"/>
     </row>
     <row r="17" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
@@ -3800,13 +4459,13 @@
       <c r="H17" s="6"/>
       <c r="J17" s="5"/>
       <c r="T17" s="6"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="74"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="83"/>
     </row>
     <row r="18" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
@@ -3822,26 +4481,26 @@
         <v>1</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="J18" s="78" t="s">
+      <c r="J18" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="80"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="74"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="89"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="83"/>
     </row>
     <row r="19" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
@@ -3857,24 +4516,24 @@
         <v>3</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="80"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="74"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="89"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="82"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="83"/>
     </row>
     <row r="20" spans="2:54" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
@@ -3884,24 +4543,24 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="6"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="80"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="74"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="89"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="83"/>
     </row>
     <row r="21" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
@@ -3911,24 +4570,24 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="6"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="80"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="74"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="89"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="83"/>
       <c r="AQ21" s="24" t="s">
         <v>19</v>
       </c>
@@ -3938,125 +4597,125 @@
     </row>
     <row r="22" spans="2:54" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="7"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="9"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="80"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="74"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="89"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="83"/>
     </row>
     <row r="23" spans="2:54" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="80"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="74"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="89"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="83"/>
     </row>
     <row r="24" spans="2:54" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="95"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="80"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="74"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="89"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="83"/>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="H25" s="6"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="80"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="74"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="89"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="83"/>
     </row>
     <row r="26" spans="2:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="H26" s="6"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="80"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="74"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="89"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="83"/>
       <c r="AQ26" s="27" t="s">
         <v>17</v>
       </c>
@@ -4072,24 +4731,24 @@
     <row r="27" spans="2:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="H27" s="6"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="80"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="74"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="89"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="83"/>
       <c r="AX27" s="26">
         <v>2</v>
       </c>
@@ -4105,73 +4764,73 @@
     <row r="28" spans="2:54" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="H28" s="6"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="80"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="74"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="89"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="83"/>
     </row>
     <row r="29" spans="2:54" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="83"/>
-      <c r="V29" s="75"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="76"/>
-      <c r="AB29" s="77"/>
-      <c r="AX29" s="88" t="s">
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="92"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="86"/>
+      <c r="AX29" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AY29" s="89"/>
-      <c r="AZ29" s="89"/>
-      <c r="BA29" s="89"/>
-      <c r="BB29" s="90"/>
+      <c r="AY29" s="97"/>
+      <c r="AZ29" s="97"/>
+      <c r="BA29" s="97"/>
+      <c r="BB29" s="98"/>
     </row>
     <row r="30" spans="2:54" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="2:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="86"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="94"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
@@ -4194,24 +4853,24 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="74"/>
+      <c r="B46" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="83"/>
     </row>
     <row r="47" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="75"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="77"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="86"/>
     </row>
     <row r="55" spans="59:60" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="59:60" x14ac:dyDescent="0.35">
@@ -4219,7 +4878,7 @@
         <v>10</v>
       </c>
       <c r="BH56" s="68" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="59:60" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4227,7 +4886,7 @@
         <v>11</v>
       </c>
       <c r="BH57" s="69" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="59:60" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4235,7 +4894,7 @@
         <v>7</v>
       </c>
       <c r="BH59" s="69" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4243,12 +4902,6 @@
     <sortCondition ref="F6:F9"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="V14:AB29"/>
-    <mergeCell ref="B46:H47"/>
-    <mergeCell ref="J18:T29"/>
-    <mergeCell ref="B40:H40"/>
     <mergeCell ref="B1:AB1"/>
     <mergeCell ref="AX29:BB29"/>
     <mergeCell ref="B29:H29"/>
@@ -4262,6 +4915,12 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="L15:R16"/>
     <mergeCell ref="J5:T6"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="V14:AB29"/>
+    <mergeCell ref="B46:H47"/>
+    <mergeCell ref="J18:T29"/>
+    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -4374,7 +5033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645F9BC3-FD70-45E7-BF31-A2F0860E127B}">
   <dimension ref="D1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4480,7 +5139,7 @@
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="50" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.35">
@@ -4495,17 +5154,17 @@
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4730,78 +5389,1024 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19C0A-246A-4DCE-AAFD-B347D31081BA}">
-  <dimension ref="D1:J13"/>
+  <dimension ref="A5:AC58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15:AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="4" max="4" width="2.54296875" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="3.90625" customWidth="1"/>
+    <col min="10" max="10" width="2.26953125" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="17" max="17" width="21.453125" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D4" s="55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D5" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D6" s="50"/>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D9" s="50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D10" s="50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D13" s="50" t="s">
-        <v>84</v>
-      </c>
+    <row r="5" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+      <c r="R5" s="112" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+      <c r="T6" s="112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="T8" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="T9" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+    </row>
+    <row r="15" spans="1:29" ht="48.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="T15" s="137" t="s">
+        <v>146</v>
+      </c>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="136"/>
+      <c r="Z15" s="136"/>
+      <c r="AA15" s="136"/>
+      <c r="AB15" s="136"/>
+      <c r="AC15" s="136"/>
+    </row>
+    <row r="16" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+      <c r="A16" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="112" t="s">
+        <v>144</v>
+      </c>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="136"/>
+      <c r="Z16" s="136"/>
+      <c r="AA16" s="136"/>
+      <c r="AB16" s="136"/>
+      <c r="AC16" s="136"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="123" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="125"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="136"/>
+      <c r="Z17" s="136"/>
+      <c r="AA17" s="136"/>
+      <c r="AB17" s="136"/>
+      <c r="AC17" s="136"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="126"/>
+      <c r="B18" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="127"/>
+      <c r="K18" t="s">
+        <v>142</v>
+      </c>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="136"/>
+      <c r="Z18" s="136"/>
+      <c r="AA18" s="136"/>
+      <c r="AB18" s="136"/>
+      <c r="AC18" s="136"/>
+    </row>
+    <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="126"/>
+      <c r="B19" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="127"/>
+      <c r="K19" t="s">
+        <v>143</v>
+      </c>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="136"/>
+      <c r="Z19" s="136"/>
+      <c r="AA19" s="136"/>
+      <c r="AB19" s="136"/>
+      <c r="AC19" s="136"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20" s="126"/>
+      <c r="B20" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="115"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="136"/>
+      <c r="Z20" s="136"/>
+      <c r="AA20" s="136"/>
+      <c r="AB20" s="136"/>
+      <c r="AC20" s="136"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" s="126"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="118"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="136"/>
+      <c r="Z21" s="136"/>
+      <c r="AA21" s="136"/>
+      <c r="AB21" s="136"/>
+      <c r="AC21" s="136"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" s="126"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="118"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="136"/>
+      <c r="Z22" s="136"/>
+      <c r="AA22" s="136"/>
+      <c r="AB22" s="136"/>
+      <c r="AC22" s="136"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23" s="126"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="118"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="136"/>
+      <c r="Z23" s="136"/>
+      <c r="AA23" s="136"/>
+      <c r="AB23" s="136"/>
+      <c r="AC23" s="136"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" s="126"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="118"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="136"/>
+      <c r="AA24" s="136"/>
+      <c r="AB24" s="136"/>
+      <c r="AC24" s="136"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="126"/>
+      <c r="B25" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="57"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="136"/>
+      <c r="Z25" s="136"/>
+      <c r="AA25" s="136"/>
+      <c r="AB25" s="136"/>
+      <c r="AC25" s="136"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="126"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="57"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="126"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="119"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="57"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" s="126"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="57"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" s="126"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="119"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="57"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30" s="126"/>
+      <c r="B30" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="118"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A31" s="126"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="118"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A32" s="126"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="118"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="126"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="118"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="126"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="118"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="126"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="118"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="126"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="117"/>
+      <c r="Q36" s="118"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="126"/>
+      <c r="B37" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="57"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="126"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="L38" s="119"/>
+      <c r="M38" s="119"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="57"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="126"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="119" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="57"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="126"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="119"/>
+      <c r="O40" s="119"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="57"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="126"/>
+      <c r="B41" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="117" t="s">
+        <v>100</v>
+      </c>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="117"/>
+      <c r="Q41" s="118"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="126"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" s="117"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="117"/>
+      <c r="P42" s="117"/>
+      <c r="Q42" s="118"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="126"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117" t="s">
+        <v>88</v>
+      </c>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="117"/>
+      <c r="Q43" s="118"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="126"/>
+      <c r="B44" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="K44" s="119"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="119"/>
+      <c r="N44" s="119"/>
+      <c r="O44" s="119"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="57"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="126"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="119"/>
+      <c r="O45" s="119"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="57"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="126"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="119"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="57"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="126"/>
+      <c r="B47" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="117" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="117"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="117"/>
+      <c r="Q47" s="118"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="126"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="117"/>
+      <c r="P48" s="117"/>
+      <c r="Q48" s="118"/>
+    </row>
+    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="126"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="121"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="121"/>
+      <c r="K49" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="121"/>
+      <c r="M49" s="121"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="121"/>
+      <c r="Q49" s="122"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="126"/>
+      <c r="B50" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="127"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="126"/>
+      <c r="B51" s="119" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="127"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="126"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="127"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="126"/>
+      <c r="B53" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="127"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="126"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="127"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="126"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="127"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="126"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="127"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="126"/>
+      <c r="B57" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="119"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
+      <c r="H57" s="119"/>
+      <c r="I57" s="127"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="131"/>
+      <c r="B58" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="134"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="T15:AC25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documentation/HostView/HostViewWireframes.xlsx
+++ b/Documentation/HostView/HostViewWireframes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\CentRes\Documentation\HostView\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E87DEA4-C495-4864-AC6B-F9202BE0CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC111D5-444C-414A-85CA-5DB00D3DE943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4E23D887-9FAB-4E8E-922D-058863E57D09}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
   <si>
     <t>server</t>
   </si>
@@ -1077,12 +1077,18 @@
       <t>displayInterface.js</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Do not show assigned servers </t>
+  </si>
+  <si>
+    <t>if none assigned to the table</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,6 +1215,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1716,7 +1729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1899,132 +1912,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2040,13 +1934,131 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3379,13 +3391,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
+      <xdr:colOff>550665</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>545706</xdr:colOff>
+      <xdr:colOff>544315</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:to>
@@ -3411,14 +3423,12 @@
           </a:extLst>
         </a:blip>
         <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4044950" y="79374"/>
-          <a:ext cx="1987156" cy="2476500"/>
+          <a:off x="4046340" y="79374"/>
+          <a:ext cx="1981200" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3442,13 +3452,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>555624</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
+      <xdr:rowOff>99482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>88307</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:rowOff>65615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3472,14 +3482,12 @@
           </a:extLst>
         </a:blip>
         <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6042024" y="88899"/>
-          <a:ext cx="1967908" cy="2466975"/>
+          <a:off x="6042024" y="99482"/>
+          <a:ext cx="1971083" cy="2442633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3507,7 +3515,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1456080</xdr:colOff>
+      <xdr:colOff>1459255</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
@@ -3568,9 +3576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>372292</xdr:colOff>
+      <xdr:colOff>369117</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3627,9 +3635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>544650</xdr:colOff>
+      <xdr:colOff>541475</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4025,69 +4033,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
     </row>
     <row r="2" spans="2:32" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:32" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="J3" s="99" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
+      <c r="J3" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="101"/>
-      <c r="V3" s="75" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="103"/>
+      <c r="V3" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="77"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="106"/>
     </row>
     <row r="4" spans="2:32" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
@@ -4119,27 +4127,27 @@
         <v>27</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="83"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="117"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="72" t="s">
+      <c r="W5" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="74"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="120"/>
       <c r="AB5" s="6"/>
       <c r="AF5" s="1" t="s">
         <v>43</v>
@@ -4159,17 +4167,17 @@
         <v>3</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="83"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="117"/>
       <c r="V6" s="5"/>
       <c r="W6" s="39"/>
       <c r="X6" s="22" t="s">
@@ -4270,24 +4278,24 @@
     </row>
     <row r="10" spans="2:32" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
       <c r="H10" s="6"/>
       <c r="J10" s="37"/>
       <c r="T10" s="6"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="102" t="s">
+      <c r="W10" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
       <c r="AB10" s="6"/>
       <c r="AD10" s="46" t="s">
         <v>40</v>
@@ -4316,15 +4324,15 @@
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:32" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
       <c r="J13" s="33"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -4336,15 +4344,15 @@
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
       <c r="T13" s="36"/>
-      <c r="V13" s="75" t="s">
+      <c r="V13" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="77"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="106"/>
     </row>
     <row r="14" spans="2:32" ht="5.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
@@ -4365,15 +4373,15 @@
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
       <c r="T14" s="36"/>
-      <c r="V14" s="78" t="s">
+      <c r="V14" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="80"/>
+      <c r="W14" s="122"/>
+      <c r="X14" s="122"/>
+      <c r="Y14" s="122"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="123"/>
     </row>
     <row r="15" spans="2:32" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
@@ -4391,24 +4399,24 @@
       <c r="H15" s="6"/>
       <c r="J15" s="38"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="104" t="s">
+      <c r="L15" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="106"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="111"/>
       <c r="S15" s="28"/>
       <c r="T15" s="58"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="82"/>
-      <c r="X15" s="82"/>
-      <c r="Y15" s="82"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="83"/>
+      <c r="V15" s="115"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="117"/>
     </row>
     <row r="16" spans="2:32" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
@@ -4426,22 +4434,22 @@
       <c r="H16" s="6"/>
       <c r="J16" s="38"/>
       <c r="K16" s="28"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="109"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="114"/>
       <c r="S16" s="28"/>
       <c r="T16" s="58"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="83"/>
+      <c r="V16" s="115"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="117"/>
     </row>
     <row r="17" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
@@ -4459,13 +4467,13 @@
       <c r="H17" s="6"/>
       <c r="J17" s="5"/>
       <c r="T17" s="6"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="83"/>
+      <c r="V17" s="115"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
+      <c r="AA17" s="116"/>
+      <c r="AB17" s="117"/>
     </row>
     <row r="18" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
@@ -4481,26 +4489,26 @@
         <v>1</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="J18" s="87" t="s">
+      <c r="J18" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="89"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="83"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="126"/>
+      <c r="V18" s="115"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="117"/>
     </row>
     <row r="19" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
@@ -4516,24 +4524,24 @@
         <v>3</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="89"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="83"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="126"/>
+      <c r="V19" s="115"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="116"/>
+      <c r="AB19" s="117"/>
     </row>
     <row r="20" spans="2:54" ht="5.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
@@ -4543,24 +4551,24 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="6"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="89"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="83"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="126"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="117"/>
     </row>
     <row r="21" spans="2:54" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
@@ -4570,24 +4578,24 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="6"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="89"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="83"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="126"/>
+      <c r="V21" s="115"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="117"/>
       <c r="AQ21" s="24" t="s">
         <v>19</v>
       </c>
@@ -4597,125 +4605,125 @@
     </row>
     <row r="22" spans="2:54" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="7"/>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="9"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="89"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="83"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="126"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="116"/>
+      <c r="AB22" s="117"/>
     </row>
     <row r="23" spans="2:54" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J23" s="87"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="89"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="82"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="82"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="83"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="126"/>
+      <c r="V23" s="115"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
+      <c r="Z23" s="116"/>
+      <c r="AA23" s="116"/>
+      <c r="AB23" s="117"/>
     </row>
     <row r="24" spans="2:54" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="89"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="83"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="126"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="116"/>
+      <c r="AB24" s="117"/>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="H25" s="6"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="89"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="82"/>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="83"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="126"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="116"/>
+      <c r="AA25" s="116"/>
+      <c r="AB25" s="117"/>
     </row>
     <row r="26" spans="2:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
       <c r="H26" s="6"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="89"/>
-      <c r="V26" s="81"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="82"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="82"/>
-      <c r="AA26" s="82"/>
-      <c r="AB26" s="83"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="126"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="116"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="117"/>
       <c r="AQ26" s="27" t="s">
         <v>17</v>
       </c>
@@ -4731,24 +4739,24 @@
     <row r="27" spans="2:54" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
       <c r="H27" s="6"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="89"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="83"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="126"/>
+      <c r="V27" s="115"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
+      <c r="Z27" s="116"/>
+      <c r="AA27" s="116"/>
+      <c r="AB27" s="117"/>
       <c r="AX27" s="26">
         <v>2</v>
       </c>
@@ -4764,73 +4772,73 @@
     <row r="28" spans="2:54" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
       <c r="H28" s="6"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="89"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="83"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="125"/>
+      <c r="S28" s="125"/>
+      <c r="T28" s="126"/>
+      <c r="V28" s="115"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="116"/>
+      <c r="Z28" s="116"/>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="117"/>
     </row>
     <row r="29" spans="2:54" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="86"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="92"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="86"/>
-      <c r="AX29" s="96" t="s">
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="100"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="128"/>
+      <c r="O29" s="128"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="129"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="100"/>
+      <c r="AX29" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="AY29" s="97"/>
-      <c r="AZ29" s="97"/>
-      <c r="BA29" s="97"/>
-      <c r="BB29" s="98"/>
+      <c r="AY29" s="96"/>
+      <c r="AZ29" s="96"/>
+      <c r="BA29" s="96"/>
+      <c r="BB29" s="97"/>
     </row>
     <row r="30" spans="2:54" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="40" spans="2:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="94"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="131"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="5"/>
@@ -4853,24 +4861,24 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="83"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="117"/>
     </row>
     <row r="47" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="84"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="86"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="100"/>
     </row>
     <row r="55" spans="59:60" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="59:60" x14ac:dyDescent="0.35">
@@ -4902,6 +4910,9 @@
     <sortCondition ref="F6:F9"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="B46:H47"/>
+    <mergeCell ref="J18:T29"/>
+    <mergeCell ref="B40:H40"/>
     <mergeCell ref="B1:AB1"/>
     <mergeCell ref="AX29:BB29"/>
     <mergeCell ref="B29:H29"/>
@@ -4918,9 +4929,6 @@
     <mergeCell ref="W5:AA5"/>
     <mergeCell ref="V13:AB13"/>
     <mergeCell ref="V14:AB29"/>
-    <mergeCell ref="B46:H47"/>
-    <mergeCell ref="J18:T29"/>
-    <mergeCell ref="B40:H40"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
@@ -5273,110 +5281,110 @@
       <c r="I9" s="65"/>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5391,8 +5399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A19C0A-246A-4DCE-AAFD-B347D31081BA}">
   <dimension ref="A5:AC58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15:AC25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5406,12 +5414,12 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:29" ht="26" x14ac:dyDescent="0.6">
-      <c r="R5" s="112" t="s">
+      <c r="R5" s="72" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="26" x14ac:dyDescent="0.6">
-      <c r="T6" s="112" t="s">
+      <c r="T6" s="72" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5439,31 +5447,45 @@
       <c r="Z9" s="35"/>
       <c r="AA9" s="35"/>
     </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="M13" s="136" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="M14" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+    </row>
     <row r="15" spans="1:29" ht="48.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="112" t="s">
+      <c r="J15" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="T15" s="137" t="s">
+      <c r="T15" s="134" t="s">
         <v>146</v>
       </c>
       <c r="U15" s="135"/>
       <c r="V15" s="135"/>
       <c r="W15" s="135"/>
       <c r="X15" s="135"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="136"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="136"/>
+      <c r="Y15" s="133"/>
+      <c r="Z15" s="133"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="133"/>
     </row>
     <row r="16" spans="1:29" ht="26" x14ac:dyDescent="0.6">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="J16" s="112" t="s">
+      <c r="J16" s="72" t="s">
         <v>144</v>
       </c>
       <c r="T16" s="135"/>
@@ -5471,47 +5493,41 @@
       <c r="V16" s="135"/>
       <c r="W16" s="135"/>
       <c r="X16" s="135"/>
-      <c r="Y16" s="136"/>
-      <c r="Z16" s="136"/>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="136"/>
+      <c r="Y16" s="133"/>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="133"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
       <c r="T17" s="135"/>
       <c r="U17" s="135"/>
       <c r="V17" s="135"/>
       <c r="W17" s="135"/>
       <c r="X17" s="135"/>
-      <c r="Y17" s="136"/>
-      <c r="Z17" s="136"/>
-      <c r="AA17" s="136"/>
-      <c r="AB17" s="136"/>
-      <c r="AC17" s="136"/>
+      <c r="Y17" s="133"/>
+      <c r="Z17" s="133"/>
+      <c r="AA17" s="133"/>
+      <c r="AB17" s="133"/>
+      <c r="AC17" s="133"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A18" s="126"/>
-      <c r="B18" s="119" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="127"/>
+      <c r="I18" s="86"/>
       <c r="K18" t="s">
         <v>142</v>
       </c>
@@ -5520,24 +5536,18 @@
       <c r="V18" s="135"/>
       <c r="W18" s="135"/>
       <c r="X18" s="135"/>
-      <c r="Y18" s="136"/>
-      <c r="Z18" s="136"/>
-      <c r="AA18" s="136"/>
-      <c r="AB18" s="136"/>
-      <c r="AC18" s="136"/>
+      <c r="Y18" s="133"/>
+      <c r="Z18" s="133"/>
+      <c r="AA18" s="133"/>
+      <c r="AB18" s="133"/>
+      <c r="AC18" s="133"/>
     </row>
     <row r="19" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="126"/>
-      <c r="B19" s="119" t="s">
+      <c r="A19" s="85"/>
+      <c r="B19" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="127"/>
+      <c r="I19" s="86"/>
       <c r="K19" t="s">
         <v>143</v>
       </c>
@@ -5546,864 +5556,680 @@
       <c r="V19" s="135"/>
       <c r="W19" s="135"/>
       <c r="X19" s="135"/>
-      <c r="Y19" s="136"/>
-      <c r="Z19" s="136"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="136"/>
+      <c r="Y19" s="133"/>
+      <c r="Z19" s="133"/>
+      <c r="AA19" s="133"/>
+      <c r="AB19" s="133"/>
+      <c r="AC19" s="133"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A20" s="126"/>
-      <c r="B20" s="113" t="s">
+      <c r="A20" s="85"/>
+      <c r="B20" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="114" t="s">
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="115"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="75"/>
       <c r="T20" s="135"/>
       <c r="U20" s="135"/>
       <c r="V20" s="135"/>
       <c r="W20" s="135"/>
       <c r="X20" s="135"/>
-      <c r="Y20" s="136"/>
-      <c r="Z20" s="136"/>
-      <c r="AA20" s="136"/>
-      <c r="AB20" s="136"/>
-      <c r="AC20" s="136"/>
+      <c r="Y20" s="133"/>
+      <c r="Z20" s="133"/>
+      <c r="AA20" s="133"/>
+      <c r="AB20" s="133"/>
+      <c r="AC20" s="133"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A21" s="126"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="117" t="s">
+      <c r="A21" s="85"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117" t="s">
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="78"/>
       <c r="T21" s="135"/>
       <c r="U21" s="135"/>
       <c r="V21" s="135"/>
       <c r="W21" s="135"/>
       <c r="X21" s="135"/>
-      <c r="Y21" s="136"/>
-      <c r="Z21" s="136"/>
-      <c r="AA21" s="136"/>
-      <c r="AB21" s="136"/>
-      <c r="AC21" s="136"/>
+      <c r="Y21" s="133"/>
+      <c r="Z21" s="133"/>
+      <c r="AA21" s="133"/>
+      <c r="AB21" s="133"/>
+      <c r="AC21" s="133"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A22" s="126"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117" t="s">
+      <c r="A22" s="85"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117" t="s">
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="118"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="78"/>
       <c r="T22" s="135"/>
       <c r="U22" s="135"/>
       <c r="V22" s="135"/>
       <c r="W22" s="135"/>
       <c r="X22" s="135"/>
-      <c r="Y22" s="136"/>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="136"/>
-      <c r="AC22" s="136"/>
+      <c r="Y22" s="133"/>
+      <c r="Z22" s="133"/>
+      <c r="AA22" s="133"/>
+      <c r="AB22" s="133"/>
+      <c r="AC22" s="133"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A23" s="126"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="118"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="78"/>
       <c r="T23" s="135"/>
       <c r="U23" s="135"/>
       <c r="V23" s="135"/>
       <c r="W23" s="135"/>
       <c r="X23" s="135"/>
-      <c r="Y23" s="136"/>
-      <c r="Z23" s="136"/>
-      <c r="AA23" s="136"/>
-      <c r="AB23" s="136"/>
-      <c r="AC23" s="136"/>
+      <c r="Y23" s="133"/>
+      <c r="Z23" s="133"/>
+      <c r="AA23" s="133"/>
+      <c r="AB23" s="133"/>
+      <c r="AC23" s="133"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A24" s="126"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117" t="s">
+      <c r="A24" s="85"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="118"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="78"/>
       <c r="T24" s="135"/>
       <c r="U24" s="135"/>
       <c r="V24" s="135"/>
       <c r="W24" s="135"/>
       <c r="X24" s="135"/>
-      <c r="Y24" s="136"/>
-      <c r="Z24" s="136"/>
-      <c r="AA24" s="136"/>
-      <c r="AB24" s="136"/>
-      <c r="AC24" s="136"/>
+      <c r="Y24" s="133"/>
+      <c r="Z24" s="133"/>
+      <c r="AA24" s="133"/>
+      <c r="AB24" s="133"/>
+      <c r="AC24" s="133"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A25" s="126"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="119" t="s">
+      <c r="I25" s="86"/>
+      <c r="J25" t="s">
         <v>97</v>
       </c>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="119"/>
       <c r="Q25" s="57"/>
       <c r="T25" s="135"/>
       <c r="U25" s="135"/>
       <c r="V25" s="135"/>
       <c r="W25" s="135"/>
       <c r="X25" s="135"/>
-      <c r="Y25" s="136"/>
-      <c r="Z25" s="136"/>
-      <c r="AA25" s="136"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="136"/>
+      <c r="Y25" s="133"/>
+      <c r="Z25" s="133"/>
+      <c r="AA25" s="133"/>
+      <c r="AB25" s="133"/>
+      <c r="AC25" s="133"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A26" s="126"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="50"/>
-      <c r="C26" s="119" t="s">
+      <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119" t="s">
+      <c r="I26" s="86"/>
+      <c r="K26" t="s">
         <v>94</v>
       </c>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
       <c r="Q26" s="57"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A27" s="126"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="50"/>
-      <c r="C27" s="119" t="s">
+      <c r="C27" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119" t="s">
+      <c r="I27" s="86"/>
+      <c r="K27" t="s">
         <v>98</v>
       </c>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
       <c r="Q27" s="57"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A28" s="126"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="50"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119" t="s">
+      <c r="I28" s="86"/>
+      <c r="K28" t="s">
         <v>88</v>
       </c>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
       <c r="Q28" s="57"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A29" s="126"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="50"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119" t="s">
+      <c r="I29" s="86"/>
+      <c r="K29" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
       <c r="Q29" s="57"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A30" s="126"/>
-      <c r="B30" s="116" t="s">
+      <c r="A30" s="85"/>
+      <c r="B30" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="117" t="s">
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="K30" s="117"/>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="118"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="78"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A31" s="126"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="117" t="s">
+      <c r="A31" s="85"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117" t="s">
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="L31" s="117"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="118"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="78"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A32" s="126"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="117" t="s">
+      <c r="A32" s="85"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117" t="s">
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="L32" s="117"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="118"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="78"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="126"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117" t="s">
+      <c r="A33" s="85"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="117"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="118"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="78"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="126"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117" t="s">
+      <c r="A34" s="85"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="118"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="78"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="126"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117" t="s">
+      <c r="A35" s="85"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="118"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="78"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="126"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117" t="s">
+      <c r="A36" s="85"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="117"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="117"/>
-      <c r="Q36" s="118"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="78"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="126"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="119" t="s">
+      <c r="I37" s="86"/>
+      <c r="J37" t="s">
         <v>95</v>
       </c>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="119"/>
       <c r="Q37" s="57"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="126"/>
+      <c r="A38" s="85"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="119" t="s">
+      <c r="C38" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119" t="s">
+      <c r="I38" s="86"/>
+      <c r="K38" t="s">
         <v>86</v>
       </c>
-      <c r="L38" s="119"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
       <c r="Q38" s="57"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="126"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="119" t="s">
+      <c r="C39" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="119" t="s">
+      <c r="I39" s="86"/>
+      <c r="K39" t="s">
         <v>96</v>
       </c>
-      <c r="L39" s="119"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="119"/>
       <c r="Q39" s="57"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="126"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="50"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119" t="s">
+      <c r="I40" s="86"/>
+      <c r="K40" t="s">
         <v>88</v>
       </c>
-      <c r="L40" s="119"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119"/>
       <c r="Q40" s="57"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="126"/>
-      <c r="B41" s="116" t="s">
+      <c r="A41" s="85"/>
+      <c r="B41" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="117" t="s">
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="117"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="117"/>
-      <c r="Q41" s="118"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="78"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="126"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="117" t="s">
+      <c r="A42" s="85"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="117" t="s">
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="L42" s="117"/>
-      <c r="M42" s="117"/>
-      <c r="N42" s="117"/>
-      <c r="O42" s="117"/>
-      <c r="P42" s="117"/>
-      <c r="Q42" s="118"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="78"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="126"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="117" t="s">
+      <c r="A43" s="85"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117" t="s">
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="117"/>
-      <c r="Q43" s="118"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="78"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="126"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="119" t="s">
+      <c r="I44" s="86"/>
+      <c r="J44" t="s">
         <v>103</v>
       </c>
-      <c r="K44" s="119"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="119"/>
-      <c r="N44" s="119"/>
-      <c r="O44" s="119"/>
-      <c r="P44" s="119"/>
       <c r="Q44" s="57"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" s="126"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="50"/>
-      <c r="C45" s="119" t="s">
+      <c r="C45" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="127"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119" t="s">
+      <c r="I45" s="86"/>
+      <c r="K45" t="s">
         <v>105</v>
       </c>
-      <c r="L45" s="119"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="119"/>
-      <c r="O45" s="119"/>
-      <c r="P45" s="119"/>
       <c r="Q45" s="57"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="126"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="50"/>
-      <c r="C46" s="119" t="s">
+      <c r="C46" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119" t="s">
+      <c r="I46" s="86"/>
+      <c r="K46" t="s">
         <v>88</v>
       </c>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="119"/>
-      <c r="O46" s="119"/>
-      <c r="P46" s="119"/>
       <c r="Q46" s="57"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" s="126"/>
-      <c r="B47" s="116" t="s">
+      <c r="A47" s="85"/>
+      <c r="B47" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="117" t="s">
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="K47" s="117"/>
-      <c r="L47" s="117"/>
-      <c r="M47" s="117"/>
-      <c r="N47" s="117"/>
-      <c r="O47" s="117"/>
-      <c r="P47" s="117"/>
-      <c r="Q47" s="118"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="77"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="78"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" s="126"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="117" t="s">
+      <c r="A48" s="85"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="117"/>
-      <c r="K48" s="117" t="s">
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="L48" s="117"/>
-      <c r="M48" s="117"/>
-      <c r="N48" s="117"/>
-      <c r="O48" s="117"/>
-      <c r="P48" s="117"/>
-      <c r="Q48" s="118"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="78"/>
     </row>
     <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="126"/>
-      <c r="B49" s="120"/>
-      <c r="C49" s="121" t="s">
+      <c r="A49" s="85"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="121"/>
-      <c r="K49" s="121" t="s">
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="L49" s="121"/>
-      <c r="M49" s="121"/>
-      <c r="N49" s="121"/>
-      <c r="O49" s="121"/>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="122"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="81"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" s="126"/>
-      <c r="B50" s="119" t="s">
+      <c r="A50" s="85"/>
+      <c r="B50" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="127"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" s="126"/>
-      <c r="B51" s="119" t="s">
+      <c r="A51" s="85"/>
+      <c r="B51" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="127"/>
+      <c r="I51" s="86"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="126"/>
-      <c r="B52" s="119"/>
-      <c r="C52" s="119" t="s">
+      <c r="A52" s="85"/>
+      <c r="C52" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="127"/>
+      <c r="I52" s="86"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" s="126"/>
-      <c r="B53" s="119" t="s">
+      <c r="A53" s="85"/>
+      <c r="B53" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="127"/>
+      <c r="I53" s="86"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A54" s="126"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119" t="s">
+      <c r="A54" s="85"/>
+      <c r="C54" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="127"/>
+      <c r="I54" s="86"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A55" s="126"/>
-      <c r="B55" s="119"/>
-      <c r="C55" s="119" t="s">
+      <c r="A55" s="85"/>
+      <c r="C55" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="127"/>
+      <c r="I55" s="86"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" s="126"/>
-      <c r="B56" s="119"/>
-      <c r="C56" s="119" t="s">
+      <c r="A56" s="85"/>
+      <c r="C56" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="127"/>
+      <c r="I56" s="86"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" s="126"/>
-      <c r="B57" s="119" t="s">
+      <c r="A57" s="85"/>
+      <c r="B57" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="119"/>
-      <c r="D57" s="119"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="119"/>
-      <c r="I57" s="127"/>
+      <c r="I57" s="86"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A58" s="131"/>
-      <c r="B58" s="132" t="s">
+      <c r="A58" s="90"/>
+      <c r="B58" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="133"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="133"/>
-      <c r="F58" s="133"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="134"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="T15:AC25"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M13:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
